--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.09343825548492</v>
+        <v>3.745631333333333</v>
       </c>
       <c r="H2">
-        <v>3.09343825548492</v>
+        <v>11.236894</v>
       </c>
       <c r="I2">
-        <v>0.1206962936591686</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="J2">
-        <v>0.1206962936591686</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>33.32149159412292</v>
+        <v>78.96470183336154</v>
       </c>
       <c r="R2">
-        <v>33.32149159412292</v>
+        <v>710.6823165002539</v>
       </c>
       <c r="S2">
-        <v>0.00367328602373707</v>
+        <v>0.008114925637129141</v>
       </c>
       <c r="T2">
-        <v>0.00367328602373707</v>
+        <v>0.008114925637129141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.09343825548492</v>
+        <v>3.745631333333333</v>
       </c>
       <c r="H3">
-        <v>3.09343825548492</v>
+        <v>11.236894</v>
       </c>
       <c r="I3">
-        <v>0.1206962936591686</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="J3">
-        <v>0.1206962936591686</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>921.3514957407394</v>
+        <v>1129.682966983858</v>
       </c>
       <c r="R3">
-        <v>921.3514957407394</v>
+        <v>10167.14670285472</v>
       </c>
       <c r="S3">
-        <v>0.1015677093173891</v>
+        <v>0.1160935589923593</v>
       </c>
       <c r="T3">
-        <v>0.1015677093173891</v>
+        <v>0.1160935589923593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.09343825548492</v>
+        <v>3.745631333333333</v>
       </c>
       <c r="H4">
-        <v>3.09343825548492</v>
+        <v>11.236894</v>
       </c>
       <c r="I4">
-        <v>0.1206962936591686</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="J4">
-        <v>0.1206962936591686</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>140.1996984883244</v>
+        <v>172.8056367226229</v>
       </c>
       <c r="R4">
-        <v>140.1996984883244</v>
+        <v>1555.250730503606</v>
       </c>
       <c r="S4">
-        <v>0.01545529831804243</v>
+        <v>0.0177586296044036</v>
       </c>
       <c r="T4">
-        <v>0.01545529831804243</v>
+        <v>0.0177586296044036</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6232945993912</v>
+        <v>15.68955666666667</v>
       </c>
       <c r="H5">
-        <v>15.6232945993912</v>
+        <v>47.06867</v>
       </c>
       <c r="I5">
-        <v>0.6095721320922987</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="J5">
-        <v>0.6095721320922987</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>168.2889512157123</v>
+        <v>330.7643101592744</v>
       </c>
       <c r="R5">
-        <v>168.2889512157123</v>
+        <v>2976.87879143347</v>
       </c>
       <c r="S5">
-        <v>0.01855179413874366</v>
+        <v>0.03399148883032725</v>
       </c>
       <c r="T5">
-        <v>0.01855179413874366</v>
+        <v>0.03399148883032725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6232945993912</v>
+        <v>15.68955666666667</v>
       </c>
       <c r="H6">
-        <v>15.6232945993912</v>
+        <v>47.06867</v>
       </c>
       <c r="I6">
-        <v>0.6095721320922987</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="J6">
-        <v>0.6095721320922987</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>4653.251385258648</v>
+        <v>4731.972623180757</v>
       </c>
       <c r="R6">
-        <v>4653.251385258648</v>
+        <v>42587.75360862682</v>
       </c>
       <c r="S6">
-        <v>0.5129639299046408</v>
+        <v>0.4862882409798379</v>
       </c>
       <c r="T6">
-        <v>0.5129639299046408</v>
+        <v>0.4862882409798379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.6232945993912</v>
+        <v>15.68955666666667</v>
       </c>
       <c r="H7">
-        <v>15.6232945993912</v>
+        <v>47.06867</v>
       </c>
       <c r="I7">
-        <v>0.6095721320922987</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="J7">
-        <v>0.6095721320922987</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>708.0733511797713</v>
+        <v>723.8416139759812</v>
       </c>
       <c r="R7">
-        <v>708.0733511797713</v>
+        <v>6514.574525783831</v>
       </c>
       <c r="S7">
-        <v>0.07805640804891421</v>
+        <v>0.07438666561257085</v>
       </c>
       <c r="T7">
-        <v>0.07805640804891421</v>
+        <v>0.07438666561257085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.91320292608834</v>
+        <v>6.948607666666667</v>
       </c>
       <c r="H8">
-        <v>6.91320292608834</v>
+        <v>20.845823</v>
       </c>
       <c r="I8">
-        <v>0.2697315742485327</v>
+        <v>0.263366490343372</v>
       </c>
       <c r="J8">
-        <v>0.2697315742485327</v>
+        <v>0.263366490343372</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>74.46673059715175</v>
+        <v>146.4892520714381</v>
       </c>
       <c r="R8">
-        <v>74.46673059715175</v>
+        <v>1318.403268642943</v>
       </c>
       <c r="S8">
-        <v>0.008209044302931396</v>
+        <v>0.01505418699239811</v>
       </c>
       <c r="T8">
-        <v>0.008209044302931396</v>
+        <v>0.01505418699239811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.91320292608834</v>
+        <v>6.948607666666667</v>
       </c>
       <c r="H9">
-        <v>6.91320292608834</v>
+        <v>20.845823</v>
       </c>
       <c r="I9">
-        <v>0.2697315742485327</v>
+        <v>0.263366490343372</v>
       </c>
       <c r="J9">
-        <v>0.2697315742485327</v>
+        <v>0.263366490343372</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>2059.03248432941</v>
+        <v>2095.701105293007</v>
       </c>
       <c r="R9">
-        <v>2059.03248432941</v>
+        <v>18861.30994763706</v>
       </c>
       <c r="S9">
-        <v>0.2269830936512408</v>
+        <v>0.215367857184982</v>
       </c>
       <c r="T9">
-        <v>0.2269830936512408</v>
+        <v>0.215367857184982</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.91320292608834</v>
+        <v>6.948607666666667</v>
       </c>
       <c r="H10">
-        <v>6.91320292608834</v>
+        <v>20.845823</v>
       </c>
       <c r="I10">
-        <v>0.2697315742485327</v>
+        <v>0.263366490343372</v>
       </c>
       <c r="J10">
-        <v>0.2697315742485327</v>
+        <v>0.263366490343372</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>313.3177021095102</v>
+        <v>320.5757495373808</v>
       </c>
       <c r="R10">
-        <v>313.3177021095102</v>
+        <v>2885.181745836427</v>
       </c>
       <c r="S10">
-        <v>0.03453943629436053</v>
+        <v>0.03294444616599191</v>
       </c>
       <c r="T10">
-        <v>0.03453943629436053</v>
+        <v>0.03294444616599191</v>
       </c>
     </row>
   </sheetData>
